--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Software\Unity\UnityProject\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36560BC4-4C39-4F53-822D-F65EE0748DF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D13204-2DF9-410B-BEB8-BB650F175855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4500" yWindow="1485" windowWidth="22140" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -166,6 +166,26 @@
       </rPr>
       <t>nt</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c预设物名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaoYu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +589,7 @@
   <dimension ref="C2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -579,7 +602,7 @@
     <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -610,7 +633,9 @@
       <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
@@ -632,7 +657,9 @@
       <c r="I4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
@@ -654,7 +681,9 @@
       <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
@@ -678,6 +707,9 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
+      <c r="J6" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" s="6">
@@ -701,6 +733,9 @@
       <c r="I7" s="6">
         <v>10</v>
       </c>
+      <c r="J7" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" s="6">
@@ -724,6 +759,9 @@
       <c r="I8" s="6">
         <v>20</v>
       </c>
+      <c r="J8" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
@@ -747,6 +785,9 @@
       <c r="I9" s="6">
         <v>30</v>
       </c>
+      <c r="J9" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" s="6">
@@ -770,6 +811,9 @@
       <c r="I10" s="6">
         <v>40</v>
       </c>
+      <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C11" s="6">
@@ -793,6 +837,9 @@
       <c r="I11" s="6">
         <v>50</v>
       </c>
+      <c r="J11" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
@@ -816,6 +863,9 @@
       <c r="I12" s="6">
         <v>60</v>
       </c>
+      <c r="J12" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C13" s="6">
@@ -839,6 +889,9 @@
       <c r="I13" s="6">
         <v>70</v>
       </c>
+      <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C14" s="6">
@@ -862,6 +915,9 @@
       <c r="I14" s="6">
         <v>80</v>
       </c>
+      <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
@@ -885,6 +941,9 @@
       <c r="I15" s="6">
         <v>90</v>
       </c>
+      <c r="J15" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C16" s="6">
@@ -908,8 +967,11 @@
       <c r="I16" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="6">
         <v>1012</v>
       </c>
@@ -931,8 +993,11 @@
       <c r="I17" s="6">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>1013</v>
       </c>
@@ -954,8 +1019,11 @@
       <c r="I18" s="6">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -964,7 +1032,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D13204-2DF9-410B-BEB8-BB650F175855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C3F9A7-C299-4545-890A-332D66E09115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4500" yWindow="1485" windowWidth="22140" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1080" windowWidth="22140" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
   <dimension ref="C2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -728,7 +728,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I7" s="6">
         <v>10</v>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Software\Unity\UnityProject\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C16539-1A71-44B4-8129-B0837C64C23B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7763DC6-1694-4CBC-9F8E-00DB68F298F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2250" windowWidth="22275" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>#</t>
   </si>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -88,6 +84,42 @@
       </rPr>
       <t xml:space="preserve"> Type 1= Player 2 = Monster 3 = Npc</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"0","0","0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗雷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>老村长</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"12","-7","0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_Mayor.prefab</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J6"/>
+  <dimension ref="C1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -499,14 +531,14 @@
     <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="3:10" x14ac:dyDescent="0.3">
@@ -533,7 +565,9 @@
       <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
@@ -553,7 +587,9 @@
       <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
@@ -573,7 +609,9 @@
       <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -587,14 +625,169 @@
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7763DC6-1694-4CBC-9F8E-00DB68F298F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6775CE-D2FF-4AFA-A8B0-3BAD52CEE136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2250" windowWidth="22275" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2370" windowWidth="22275" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>NPC_Mayor.prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI配置ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIConfigId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -532,7 +544,7 @@
     <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -568,7 +580,9 @@
       <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
@@ -590,7 +604,9 @@
       <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
@@ -612,7 +628,9 @@
       <c r="I5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
@@ -656,6 +674,9 @@
       </c>
       <c r="I7" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
